--- a/projects/optimTest2.xlsx
+++ b/projects/optimTest2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="19920" windowHeight="4560" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12060" windowHeight="4560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Lookups" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="595">
   <si>
     <t>type</t>
   </si>
@@ -1518,21 +1518,9 @@
     <t>Outputs</t>
   </si>
   <si>
-    <t>Heating Natural Gas</t>
-  </si>
-  <si>
-    <t>heating_natural_gas</t>
-  </si>
-  <si>
     <t>MJ/m2</t>
   </si>
   <si>
-    <t>Cooling Electricity</t>
-  </si>
-  <si>
-    <t>cooling_electricity</t>
-  </si>
-  <si>
     <t>OpenStudio Server Version</t>
   </si>
   <si>
@@ -1596,9 +1584,6 @@
     <t>Shift Equip Schedule Profile Time</t>
   </si>
   <si>
-    <t>11122_LargeOfficeOSM_AirCooledChiller</t>
-  </si>
-  <si>
     <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
   </si>
   <si>
@@ -1755,18 +1740,6 @@
     <t>Shift Schedule Profiles Forward Equip</t>
   </si>
   <si>
-    <t>Interior Equipment Electricity</t>
-  </si>
-  <si>
-    <t>interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity</t>
-  </si>
-  <si>
-    <t>fans_electricity</t>
-  </si>
-  <si>
     <t>Modify EnergyPlus Fan Varaible Volume Objects</t>
   </si>
   <si>
@@ -1797,12 +1770,6 @@
     <t>Total Natural Gas</t>
   </si>
   <si>
-    <t>NSGA calibration</t>
-  </si>
-  <si>
-    <t>run_openstudio_workflow_monthly.rb</t>
-  </si>
-  <si>
     <t>cprob</t>
   </si>
   <si>
@@ -1822,6 +1789,30 @@
   </si>
   <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t>run_openstudio_workflow.rb</t>
+  </si>
+  <si>
+    <t>epsilonGradient</t>
+  </si>
+  <si>
+    <t>normType</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>pPower</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>LargeOfficeOSM3</t>
+  </si>
+  <si>
+    <t>NSGA calibration4</t>
   </si>
 </sst>
 </file>
@@ -1857,6 +1848,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1864,6 +1856,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1871,6 +1864,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3276,7 +3270,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3348,6 +3342,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5008,10 +5005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5047,7 +5044,7 @@
         <v>446</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>447</v>
@@ -5058,7 +5055,7 @@
         <v>479</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>480</v>
@@ -5066,24 +5063,24 @@
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>507</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5151,10 +5148,10 @@
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5165,7 +5162,7 @@
         <v>472</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -5195,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5214,7 +5211,7 @@
         <v>494</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>447</v>
@@ -5239,7 +5236,7 @@
         <v>474</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5271,7 +5268,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B26" s="25">
         <v>20</v>
@@ -5280,7 +5277,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B27" s="25">
         <v>0.9</v>
@@ -5289,7 +5286,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B28" s="25">
         <v>2</v>
@@ -5298,7 +5295,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B29" s="25">
         <v>2</v>
@@ -5307,79 +5304,103 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B30" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B31" s="35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B33" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B37" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D38" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="14"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5413,8 +5434,8 @@
   <dimension ref="A1:X145"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5452,26 +5473,26 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="29" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -5527,10 +5548,10 @@
         <v>9</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>8</v>
@@ -5872,7 +5893,7 @@
     </row>
     <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>295</v>
@@ -6162,7 +6183,7 @@
     </row>
     <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -6219,17 +6240,18 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="K28" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <f>(J28+K28)/2</f>
+        <v>-25</v>
       </c>
       <c r="M28" s="3">
         <f>(K28-J28)/6</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N28" s="1"/>
       <c r="P28" s="1" t="s">
@@ -6454,7 +6476,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>268</v>
@@ -6586,7 +6608,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>268</v>
@@ -7963,10 +7985,10 @@
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="N96" s="1"/>
     </row>
@@ -8557,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>396</v>
@@ -8591,7 +8613,7 @@
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I121" s="20" t="s">
         <v>440</v>
@@ -8604,7 +8626,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>400</v>
@@ -8643,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>396</v>
@@ -8688,7 +8710,7 @@
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="I124" s="20" t="s">
         <v>440</v>
@@ -8712,7 +8734,7 @@
         <v>26</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D125" s="20" t="s">
         <v>400</v>
@@ -8757,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>396</v>
@@ -8802,7 +8824,7 @@
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I127" s="20" t="s">
         <v>440</v>
@@ -8826,7 +8848,7 @@
         <v>26</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>400</v>
@@ -8871,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>396</v>
@@ -8916,7 +8938,7 @@
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I130" s="20" t="s">
         <v>440</v>
@@ -8940,7 +8962,7 @@
         <v>26</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D131" s="20" t="s">
         <v>400</v>
@@ -8985,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>396</v>
@@ -9030,7 +9052,7 @@
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I133" s="20" t="s">
         <v>440</v>
@@ -9054,7 +9076,7 @@
         <v>26</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D134" s="20" t="s">
         <v>400</v>
@@ -9099,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C135" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D135" t="s">
         <v>170</v>
@@ -9113,10 +9135,10 @@
         <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D136" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
@@ -9151,10 +9173,10 @@
         <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D137" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -9169,13 +9191,13 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C138" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D138" t="s">
         <v>76</v>
@@ -9194,10 +9216,10 @@
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D139" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -9207,10 +9229,10 @@
       </c>
       <c r="G139"/>
       <c r="H139" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I139" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
@@ -9221,10 +9243,10 @@
         <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D140" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -9246,10 +9268,10 @@
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D141" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E141" t="s">
         <v>15</v>
@@ -9286,10 +9308,10 @@
         <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D142" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -9311,10 +9333,10 @@
         <v>25</v>
       </c>
       <c r="C143" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D143" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -9336,10 +9358,10 @@
         <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D144" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -9352,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
@@ -9363,10 +9385,10 @@
         <v>25</v>
       </c>
       <c r="C145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D145" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -9379,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="J145"/>
       <c r="K145"/>
@@ -9401,11 +9423,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9422,7 +9444,7 @@
     <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -9435,7 +9457,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>483</v>
       </c>
@@ -9452,12 +9474,15 @@
         <v>487</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>597</v>
+        <v>586</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>592</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -9471,145 +9496,92 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" t="s">
         <v>496</v>
       </c>
-      <c r="B4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>462.1635</v>
-      </c>
-      <c r="F4"/>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>175</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>84.162019999999998</v>
-      </c>
-      <c r="F5"/>
+        <v>496</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>121.99850000000001</v>
-      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>577</v>
-      </c>
-      <c r="B7" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>87.921419999999998</v>
-      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>588</v>
-      </c>
-      <c r="B8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>175</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B9" t="s">
-        <v>585</v>
-      </c>
-      <c r="C9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>500</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10"/>
+      <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -9617,7 +9589,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -9627,54 +9599,54 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
@@ -9694,6 +9666,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24"/>
@@ -9735,47 +9708,6 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17148,10 +17080,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C328" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D328" t="s">
         <v>76</v>
@@ -17162,10 +17094,10 @@
         <v>25</v>
       </c>
       <c r="C329" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D329" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -17174,10 +17106,10 @@
         <v>70</v>
       </c>
       <c r="H329" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="I329" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -17185,10 +17117,10 @@
         <v>25</v>
       </c>
       <c r="C330" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D330" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -17205,10 +17137,10 @@
         <v>25</v>
       </c>
       <c r="C331" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D331" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -17225,10 +17157,10 @@
         <v>25</v>
       </c>
       <c r="C332" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D332" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -17245,10 +17177,10 @@
         <v>25</v>
       </c>
       <c r="C333" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D333" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -17262,10 +17194,10 @@
         <v>25</v>
       </c>
       <c r="C334" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D334" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -17274,10 +17206,10 @@
         <v>70</v>
       </c>
       <c r="H334" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I334" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -17285,10 +17217,10 @@
         <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D335" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -17297,10 +17229,10 @@
         <v>70</v>
       </c>
       <c r="H335" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I335" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -17308,10 +17240,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C336" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D336" t="s">
         <v>76</v>
@@ -17322,10 +17254,10 @@
         <v>25</v>
       </c>
       <c r="C337" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D337" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -17334,10 +17266,10 @@
         <v>70</v>
       </c>
       <c r="H337" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I337" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.3">
@@ -17345,10 +17277,10 @@
         <v>25</v>
       </c>
       <c r="C338" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D338" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -17357,10 +17289,10 @@
         <v>70</v>
       </c>
       <c r="H338" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I338" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.3">
@@ -17368,10 +17300,10 @@
         <v>25</v>
       </c>
       <c r="C339" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D339" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -17388,10 +17320,10 @@
         <v>25</v>
       </c>
       <c r="C340" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D340" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -17408,10 +17340,10 @@
         <v>25</v>
       </c>
       <c r="C341" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D341" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>

--- a/projects/optimTest2.xlsx
+++ b/projects/optimTest2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="590">
   <si>
     <t>type</t>
   </si>
@@ -1770,21 +1770,6 @@
     <t>Total Natural Gas</t>
   </si>
   <si>
-    <t>cprob</t>
-  </si>
-  <si>
-    <t>XoverDistIdx</t>
-  </si>
-  <si>
-    <t>MuDistIdx</t>
-  </si>
-  <si>
-    <t>mprob</t>
-  </si>
-  <si>
-    <t>Generations</t>
-  </si>
-  <si>
     <t>optim</t>
   </si>
   <si>
@@ -1797,6 +1782,9 @@
     <t>epsilonGradient</t>
   </si>
   <si>
+    <t>LargeOfficeOSM2</t>
+  </si>
+  <si>
     <t>normType</t>
   </si>
   <si>
@@ -1809,10 +1797,7 @@
     <t>Group</t>
   </si>
   <si>
-    <t>LargeOfficeOSM3</t>
-  </si>
-  <si>
-    <t>NSGA calibration4</t>
+    <t>NSGA calibration2</t>
   </si>
 </sst>
 </file>
@@ -5005,10 +4990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5148,7 +5133,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>501</v>
@@ -5211,7 +5196,7 @@
         <v>494</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>447</v>
@@ -5236,7 +5221,7 @@
         <v>474</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5268,139 +5253,95 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B26" s="25">
-        <v>20</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="B26" s="35">
+        <v>1E-4</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B27" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B28" s="25">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B29" s="25">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="B28" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B31" s="35">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B33" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D33" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="14"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5434,8 +5375,8 @@
   <dimension ref="A1:X145"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9474,10 +9415,10 @@
         <v>487</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>

--- a/projects/optimTest2.xlsx
+++ b/projects/optimTest2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="591">
   <si>
     <t>type</t>
   </si>
@@ -1782,9 +1782,6 @@
     <t>epsilonGradient</t>
   </si>
   <si>
-    <t>LargeOfficeOSM2</t>
-  </si>
-  <si>
     <t>normType</t>
   </si>
   <si>
@@ -1797,7 +1794,13 @@
     <t>Group</t>
   </si>
   <si>
-    <t>NSGA calibration2</t>
+    <t>pgtol</t>
+  </si>
+  <si>
+    <t>LargeOfficeOSM2a</t>
+  </si>
+  <si>
+    <t>NSGA calibration2a</t>
   </si>
 </sst>
 </file>
@@ -4990,10 +4993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5133,7 +5136,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>501</v>
@@ -5253,95 +5256,103 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B26" s="35">
-        <v>1E-4</v>
+        <v>588</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>586</v>
+        <v>583</v>
+      </c>
+      <c r="B27" s="35">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B28" s="35">
+        <v>584</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B29" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B30" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B31" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B33" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9418,7 +9429,7 @@
         <v>581</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>

--- a/projects/optimTest2.xlsx
+++ b/projects/optimTest2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12060" windowHeight="4560" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12060" windowHeight="4560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4995,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -5385,9 +5385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="36" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>265</v>

--- a/projects/optimTest2.xlsx
+++ b/projects/optimTest2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12060" windowHeight="4560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4965,17 +4965,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4993,23 +4993,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="22"/>
       <c r="B1" s="27"/>
       <c r="C1" s="22"/>
@@ -5018,7 +5018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>479</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>497</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
         <v>499</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>459</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>460</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>481</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>490</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>491</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>492</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>494</v>
       </c>
@@ -5205,10 +5205,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>474</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A23" s="12" t="s">
         <v>470</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5246,7 +5243,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5254,7 +5251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>588</v>
       </c>
@@ -5262,7 +5259,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>583</v>
       </c>
@@ -5270,7 +5267,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>584</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>586</v>
       </c>
@@ -5286,73 +5283,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:5">
+      <c r="B30" s="35"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B31" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B32" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B34" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:5" ht="28">
+      <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B37" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="14"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5385,34 +5385,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" style="1"/>
-    <col min="18" max="18" width="46.109375" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="11.5" style="1"/>
+    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.5" style="1"/>
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5446,7 +5446,7 @@
       <c r="W1" s="36"/>
       <c r="X1" s="36"/>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:24" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="M5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5615,7 +5615,7 @@
       <c r="M7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5654,7 +5654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5681,7 +5681,7 @@
       <c r="M9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5708,7 +5708,7 @@
       <c r="M10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5735,7 +5735,7 @@
       <c r="M11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5762,7 +5762,7 @@
       <c r="M12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5789,7 +5789,7 @@
       <c r="M13" s="3"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5816,7 +5816,7 @@
       <c r="M14" s="3"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5843,7 +5843,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" s="20" t="b">
         <v>1</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="M16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -5897,7 +5897,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -5937,7 +5937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -5965,7 +5965,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -5993,7 +5993,7 @@
       <c r="M20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -6021,7 +6021,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6049,7 +6049,7 @@
       <c r="M22" s="3"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6077,7 +6077,7 @@
       <c r="M23" s="3"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6105,7 +6105,7 @@
       <c r="M24" s="3"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6133,7 +6133,7 @@
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" customFormat="1">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" customFormat="1">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" customFormat="1">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" customFormat="1">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" customFormat="1">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" customFormat="1">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" customFormat="1" ht="15">
       <c r="A32" s="20" t="b">
         <v>0</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="N32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>26</v>
@@ -6338,7 +6338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -6378,7 +6378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6402,7 +6402,7 @@
       <c r="I35" s="20"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" customFormat="1" ht="15">
       <c r="A36" s="20" t="b">
         <v>1</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="I36" s="20"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>26</v>
@@ -6462,7 +6462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -6486,7 +6486,7 @@
       <c r="I38" s="20"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" customFormat="1" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -6510,7 +6510,7 @@
       <c r="I39" s="20"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" customFormat="1" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6534,7 +6534,7 @@
       <c r="I40" s="20"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" customFormat="1" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="I41" s="20"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>26</v>
@@ -6594,7 +6594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" customFormat="1" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6618,7 +6618,7 @@
       <c r="I43" s="20"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" customFormat="1" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6642,7 +6642,7 @@
       <c r="I44" s="20"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" customFormat="1" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -6666,7 +6666,7 @@
       <c r="I45" s="20"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" customFormat="1" ht="15">
       <c r="A46" s="20" t="b">
         <v>0</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="I46" s="20"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" customFormat="1" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" customFormat="1" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>26</v>
@@ -6752,7 +6752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" customFormat="1" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -6776,7 +6776,7 @@
       <c r="I49" s="20"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" customFormat="1" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -6800,7 +6800,7 @@
       <c r="I50" s="20"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" customFormat="1" ht="15">
       <c r="A51" s="20"/>
       <c r="B51" s="20" t="s">
         <v>25</v>
@@ -6824,7 +6824,7 @@
       <c r="I51" s="20"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" customFormat="1" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -6848,7 +6848,7 @@
       <c r="I52" s="20"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" customFormat="1" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -6872,7 +6872,7 @@
       <c r="I53" s="20"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" customFormat="1" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -6896,7 +6896,7 @@
       <c r="I54" s="20"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" customFormat="1" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -6920,7 +6920,7 @@
       <c r="I55" s="20"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" customFormat="1" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -6944,7 +6944,7 @@
       <c r="I56" s="20"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" customFormat="1" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -6968,7 +6968,7 @@
       <c r="I57" s="20"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" customFormat="1" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -6992,7 +6992,7 @@
       <c r="I58" s="20"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" customFormat="1" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7016,7 +7016,7 @@
       <c r="I59" s="20"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" customFormat="1" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7040,7 +7040,7 @@
       <c r="I60" s="20"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" customFormat="1" ht="15">
       <c r="A61" s="20"/>
       <c r="B61" s="20" t="s">
         <v>25</v>
@@ -7064,7 +7064,7 @@
       <c r="I61" s="20"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" customFormat="1" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7088,7 +7088,7 @@
       <c r="I62" s="20"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" customFormat="1" ht="15">
       <c r="A63" s="20" t="b">
         <v>0</v>
       </c>
@@ -7108,7 +7108,7 @@
       <c r="I63" s="20"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" customFormat="1" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" customFormat="1" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>26</v>
@@ -7174,7 +7174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" customFormat="1" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7198,7 +7198,7 @@
       <c r="I66" s="20"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" customFormat="1" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7222,7 +7222,7 @@
       <c r="I67" s="20"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" customFormat="1" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7246,7 +7246,7 @@
       <c r="I68" s="20"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" customFormat="1" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7270,7 +7270,7 @@
       <c r="I69" s="20"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" customFormat="1" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7294,7 +7294,7 @@
       <c r="I70" s="20"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" customFormat="1" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7318,7 +7318,7 @@
       <c r="I71" s="20"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" customFormat="1" ht="15">
       <c r="A72" s="20"/>
       <c r="B72" s="20" t="s">
         <v>25</v>
@@ -7342,7 +7342,7 @@
       <c r="I72" s="20"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" customFormat="1" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7366,7 +7366,7 @@
       <c r="I73" s="20"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" customFormat="1" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7390,7 +7390,7 @@
       <c r="I74" s="20"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" customFormat="1" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7414,7 +7414,7 @@
       <c r="I75" s="20"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" customFormat="1" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7438,7 +7438,7 @@
       <c r="I76" s="20"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" customFormat="1" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7462,7 +7462,7 @@
       <c r="I77" s="20"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" customFormat="1" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7486,7 +7486,7 @@
       <c r="I78" s="20"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" customFormat="1" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7510,7 +7510,7 @@
       <c r="I79" s="20"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" customFormat="1" ht="15">
       <c r="A80" s="20" t="b">
         <v>0</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="I80" s="20"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" customFormat="1" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" customFormat="1" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>26</v>
@@ -7596,7 +7596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" customFormat="1" ht="15">
       <c r="A83" s="20" t="b">
         <v>0</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="I83" s="20"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" customFormat="1" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>26</v>
@@ -7656,7 +7656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" customFormat="1" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -7680,7 +7680,7 @@
       <c r="I85" s="20"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" customFormat="1" ht="15">
       <c r="A86" s="20"/>
       <c r="B86" s="20" t="s">
         <v>25</v>
@@ -7704,7 +7704,7 @@
       <c r="I86" s="20"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" customFormat="1" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -7728,7 +7728,7 @@
       <c r="I87" s="20"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" customFormat="1" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -7752,7 +7752,7 @@
       <c r="I88" s="20"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" customFormat="1" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -7776,7 +7776,7 @@
       <c r="I89" s="20"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" customFormat="1" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -7800,7 +7800,7 @@
       <c r="I90" s="20"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" customFormat="1" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -7824,7 +7824,7 @@
       <c r="I91" s="20"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" customFormat="1" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -7848,7 +7848,7 @@
       <c r="I92" s="20"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" customFormat="1" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -7872,7 +7872,7 @@
       <c r="I93" s="20"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" customFormat="1" ht="15">
       <c r="A94" s="20" t="b">
         <v>0</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="I94" s="20"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" customFormat="1" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" customFormat="1" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" customFormat="1" ht="15">
       <c r="A97" s="20"/>
       <c r="B97" s="20" t="s">
         <v>26</v>
@@ -7984,7 +7984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" customFormat="1" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8008,7 +8008,7 @@
       <c r="I98" s="20"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" customFormat="1" ht="15">
       <c r="A99" s="20"/>
       <c r="B99" s="20" t="s">
         <v>25</v>
@@ -8032,7 +8032,7 @@
       <c r="I99" s="20"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" customFormat="1" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8056,7 +8056,7 @@
       <c r="I100" s="20"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" customFormat="1" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8080,7 +8080,7 @@
       <c r="I101" s="20"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" customFormat="1" ht="15">
       <c r="A102" s="20"/>
       <c r="B102" s="20" t="s">
         <v>25</v>
@@ -8104,7 +8104,7 @@
       <c r="I102" s="20"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" customFormat="1" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8128,7 +8128,7 @@
       <c r="I103" s="20"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" customFormat="1" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8152,7 +8152,7 @@
       <c r="I104" s="20"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" customFormat="1" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8176,7 +8176,7 @@
       <c r="I105" s="20"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" customFormat="1" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8200,7 +8200,7 @@
       <c r="I106" s="20"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" customFormat="1" ht="15">
       <c r="A107" s="20"/>
       <c r="B107" s="20" t="s">
         <v>25</v>
@@ -8224,7 +8224,7 @@
       <c r="I107" s="20"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" customFormat="1" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8248,7 +8248,7 @@
       <c r="I108" s="20"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" customFormat="1" ht="15">
       <c r="A109" s="20" t="b">
         <v>0</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="I109" s="20"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" customFormat="1" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" customFormat="1" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>26</v>
@@ -8334,7 +8334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" customFormat="1" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8358,7 +8358,7 @@
       <c r="I112" s="20"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" customFormat="1" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8382,7 +8382,7 @@
       <c r="I113" s="20"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" customFormat="1" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8406,7 +8406,7 @@
       <c r="I114" s="20"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" customFormat="1" ht="15">
       <c r="A115" s="20"/>
       <c r="B115" s="20" t="s">
         <v>25</v>
@@ -8430,7 +8430,7 @@
       <c r="I115" s="20"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" customFormat="1" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8454,7 +8454,7 @@
       <c r="I116" s="20"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" customFormat="1" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8478,7 +8478,7 @@
       <c r="I117" s="20"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" customFormat="1" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8502,7 +8502,7 @@
       <c r="I118" s="20"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" customFormat="1" ht="15">
       <c r="A119" s="20"/>
       <c r="B119" s="20" t="s">
         <v>25</v>
@@ -8526,7 +8526,7 @@
       <c r="I119" s="20"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" customFormat="1" ht="15">
       <c r="A120" s="20" t="b">
         <v>0</v>
       </c>
@@ -8546,7 +8546,7 @@
       <c r="I120" s="20"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" customFormat="1" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" customFormat="1" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>26</v>
@@ -8612,7 +8612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="15">
       <c r="A123" s="20" t="b">
         <v>0</v>
       </c>
@@ -8643,7 +8643,7 @@
       <c r="U123" s="33"/>
       <c r="V123" s="33"/>
     </row>
-    <row r="124" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8680,7 +8680,7 @@
       <c r="U124" s="33"/>
       <c r="V124" s="33"/>
     </row>
-    <row r="125" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>26</v>
@@ -8726,7 +8726,7 @@
       <c r="U125" s="33"/>
       <c r="V125" s="33"/>
     </row>
-    <row r="126" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8757,7 +8757,7 @@
       <c r="U126" s="33"/>
       <c r="V126" s="33"/>
     </row>
-    <row r="127" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -8794,7 +8794,7 @@
       <c r="U127" s="33"/>
       <c r="V127" s="33"/>
     </row>
-    <row r="128" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>26</v>
@@ -8840,7 +8840,7 @@
       <c r="U128" s="33"/>
       <c r="V128" s="33"/>
     </row>
-    <row r="129" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="15">
       <c r="A129" s="20" t="b">
         <v>0</v>
       </c>
@@ -8871,7 +8871,7 @@
       <c r="U129" s="33"/>
       <c r="V129" s="33"/>
     </row>
-    <row r="130" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -8908,7 +8908,7 @@
       <c r="U130" s="33"/>
       <c r="V130" s="33"/>
     </row>
-    <row r="131" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>26</v>
@@ -8954,7 +8954,7 @@
       <c r="U131" s="33"/>
       <c r="V131" s="33"/>
     </row>
-    <row r="132" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="15">
       <c r="A132" s="20" t="b">
         <v>0</v>
       </c>
@@ -8985,7 +8985,7 @@
       <c r="U132" s="33"/>
       <c r="V132" s="33"/>
     </row>
-    <row r="133" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9022,7 +9022,7 @@
       <c r="U133" s="33"/>
       <c r="V133" s="33"/>
     </row>
-    <row r="134" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>26</v>
@@ -9068,7 +9068,7 @@
       <c r="U134" s="33"/>
       <c r="V134" s="33"/>
     </row>
-    <row r="135" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" customFormat="1">
       <c r="A135" t="b">
         <v>0</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" customFormat="1">
       <c r="B136" t="s">
         <v>26</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" customFormat="1">
       <c r="B137" t="s">
         <v>25</v>
       </c>
@@ -9141,7 +9141,7 @@
       <c r="O137" s="33"/>
       <c r="P137" s="33"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22">
       <c r="A138" t="b">
         <v>1</v>
       </c>
@@ -9162,7 +9162,7 @@
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22">
       <c r="A139"/>
       <c r="B139" t="s">
         <v>25</v>
@@ -9189,7 +9189,7 @@
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22">
       <c r="A140"/>
       <c r="B140" t="s">
         <v>25</v>
@@ -9214,7 +9214,7 @@
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22">
       <c r="A141"/>
       <c r="B141" t="s">
         <v>26</v>
@@ -9254,7 +9254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22">
       <c r="A142"/>
       <c r="B142" t="s">
         <v>25</v>
@@ -9279,7 +9279,7 @@
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22">
       <c r="A143"/>
       <c r="B143" t="s">
         <v>25</v>
@@ -9304,7 +9304,7 @@
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22">
       <c r="A144"/>
       <c r="B144" t="s">
         <v>25</v>
@@ -9331,7 +9331,7 @@
       <c r="J144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>25</v>
@@ -9382,21 +9382,21 @@
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -9409,7 +9409,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>483</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -9448,7 +9448,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>579</v>
       </c>
@@ -9470,7 +9470,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>578</v>
       </c>
@@ -9492,7 +9492,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -9501,7 +9501,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -9511,7 +9511,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -9521,7 +9521,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -9531,7 +9531,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -9541,7 +9541,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -9551,15 +9551,15 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" customFormat="1"/>
+    <row r="13" spans="1:9" customFormat="1"/>
+    <row r="14" spans="1:9" customFormat="1">
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" customFormat="1"/>
+    <row r="16" spans="1:9" customFormat="1"/>
+    <row r="17" spans="1:9" customFormat="1"/>
+    <row r="18" spans="1:9">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -9569,7 +9569,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -9579,7 +9579,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -9589,7 +9589,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9599,7 +9599,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9609,7 +9609,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9620,7 +9620,7 @@
       <c r="H23"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9630,7 +9630,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9640,7 +9640,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9650,7 +9650,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9676,23 +9676,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I341"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -9732,7 +9732,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -9956,7 +9956,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -10406,7 +10406,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -10609,7 +10609,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -10630,7 +10630,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -10722,7 +10722,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -10833,7 +10833,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -10854,7 +10854,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -11057,7 +11057,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -11078,7 +11078,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -11103,7 +11103,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -11172,7 +11172,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -11306,7 +11306,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -11327,7 +11327,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -11375,7 +11375,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -11624,7 +11624,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -11647,7 +11647,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -11739,7 +11739,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -11808,7 +11808,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -11873,7 +11873,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -11898,7 +11898,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -11917,7 +11917,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -11938,7 +11938,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -11963,7 +11963,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -11982,7 +11982,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -12030,7 +12030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -12074,7 +12074,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -12093,7 +12093,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -12118,7 +12118,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -12233,7 +12233,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -12275,7 +12275,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -12363,7 +12363,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -12520,7 +12520,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -12545,7 +12545,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -12748,7 +12748,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -12773,7 +12773,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -12794,7 +12794,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -12932,7 +12932,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -13001,7 +13001,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -13070,7 +13070,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -13131,7 +13131,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -13196,7 +13196,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -13447,7 +13447,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -13472,7 +13472,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -13518,7 +13518,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -13564,7 +13564,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -13698,7 +13698,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -13744,7 +13744,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -13790,7 +13790,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -13809,7 +13809,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -13855,7 +13855,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -13901,7 +13901,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -13941,7 +13941,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -13983,7 +13983,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -14031,7 +14031,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -14052,7 +14052,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -14077,7 +14077,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -14102,7 +14102,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -14121,7 +14121,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -14146,7 +14146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -14215,7 +14215,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -14284,7 +14284,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -14330,7 +14330,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -14349,7 +14349,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -14374,7 +14374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -14577,7 +14577,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -14598,7 +14598,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -14736,7 +14736,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -14759,7 +14759,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -14962,7 +14962,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -14983,7 +14983,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -15098,7 +15098,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -15259,7 +15259,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -15305,7 +15305,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -15347,7 +15347,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -15372,7 +15372,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -15483,7 +15483,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -15508,7 +15508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -15531,7 +15531,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -15550,7 +15550,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -15569,7 +15569,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -15609,7 +15609,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -15632,7 +15632,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -15678,7 +15678,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -15839,7 +15839,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -15858,7 +15858,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -15881,7 +15881,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -15900,7 +15900,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -15925,7 +15925,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -16174,7 +16174,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -16197,7 +16197,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -16216,7 +16216,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -16237,7 +16237,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -16256,7 +16256,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -16277,7 +16277,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -16296,7 +16296,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -16317,7 +16317,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -16336,7 +16336,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -16378,7 +16378,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -16403,7 +16403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -16449,7 +16449,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -16472,7 +16472,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -16541,7 +16541,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -16564,7 +16564,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -16587,7 +16587,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -16606,7 +16606,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -16652,7 +16652,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -16698,7 +16698,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -16717,7 +16717,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -16740,7 +16740,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -16763,7 +16763,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -16788,7 +16788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -16807,7 +16807,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -16832,7 +16832,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -16874,7 +16874,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -16895,7 +16895,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -16916,7 +16916,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -16939,7 +16939,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -16958,7 +16958,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -16977,7 +16977,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -17002,7 +17002,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -17027,7 +17027,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>25</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>25</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>25</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>25</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>25</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>25</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>25</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:9">
       <c r="B337" t="s">
         <v>25</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:9">
       <c r="B338" t="s">
         <v>25</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:9">
       <c r="B339" t="s">
         <v>25</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:9">
       <c r="B340" t="s">
         <v>25</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:9">
       <c r="B341" t="s">
         <v>25</v>
       </c>
@@ -17322,13 +17322,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>450</v>
       </c>
@@ -17383,17 +17383,17 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>475</v>
       </c>
